--- a/dictionaries/urban_ath/1_3/1_3_non_rep.xlsx
+++ b/dictionaries/urban_ath/1_3/1_3_non_rep.xlsx
@@ -1,47 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PROJECTS\ATHLETE\DOCUMENTS\dictionaries\jose_dictionaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:1_{3C7DCB47-9CAD-40CA-9189-C25A657794B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CEBC575-6E8E-42ED-A038-86DCE5E0601D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48610C43-0FF9-4D21-A840-EA3A5336D700}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
     <sheet name="Categories" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variables!$A$1:$D$175</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Categories!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variables!$A$1:$D$217</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="546">
   <si>
     <t>name</t>
   </si>
@@ -193,12 +182,6 @@
     <t>number of facilities present within a buffer of 300 m at pregnancy</t>
   </si>
   <si>
-    <t>ath_foodenvdens300_preg</t>
-  </si>
-  <si>
-    <t>number of facilities related to unhealthy food divided by the area of the 300 meters buffer at pregnancy</t>
-  </si>
-  <si>
     <t>ath_frichness300_preg</t>
   </si>
   <si>
@@ -823,12 +806,6 @@
     <t>number of facilities present within a buffer of 300 m at birth</t>
   </si>
   <si>
-    <t>ath_foodenvdens300_0</t>
-  </si>
-  <si>
-    <t>number of facilities related to unhealthy food divided by the area of the 300 meters buffer at birth</t>
-  </si>
-  <si>
     <t>ath_frichness300_0</t>
   </si>
   <si>
@@ -1427,13 +1404,277 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>ath_fefoodenv300_preg</t>
+  </si>
+  <si>
+    <t>ath_fefoodenv300_0</t>
+  </si>
+  <si>
+    <t>ath_fealcohol300_preg</t>
+  </si>
+  <si>
+    <t>ath_fealcohol300_0</t>
+  </si>
+  <si>
+    <t>ath_febar300_preg</t>
+  </si>
+  <si>
+    <t>ath_febar300_0</t>
+  </si>
+  <si>
+    <t>ath_febeverages300_preg</t>
+  </si>
+  <si>
+    <t>ath_febeverages300_0</t>
+  </si>
+  <si>
+    <t>ath_febiergarten300_preg</t>
+  </si>
+  <si>
+    <t>ath_febiergarten300_0</t>
+  </si>
+  <si>
+    <t>ath_fecafe300_preg</t>
+  </si>
+  <si>
+    <t>ath_fecafe300_0</t>
+  </si>
+  <si>
+    <t>ath_feconvenience300_preg</t>
+  </si>
+  <si>
+    <t>ath_feconvenience300_0</t>
+  </si>
+  <si>
+    <t>ath_fefastfood300_preg</t>
+  </si>
+  <si>
+    <t>ath_fefastfood300_0</t>
+  </si>
+  <si>
+    <t>ath_fepub300_preg</t>
+  </si>
+  <si>
+    <t>ath_fepub300_0</t>
+  </si>
+  <si>
+    <t>ath_ferestaurant300_preg</t>
+  </si>
+  <si>
+    <t>ath_ferestaurant300_0</t>
+  </si>
+  <si>
+    <t>ath_fesupermarket300_preg</t>
+  </si>
+  <si>
+    <t>ath_fesupermarket300_0</t>
+  </si>
+  <si>
+    <t>ath_fefoodenv800_preg</t>
+  </si>
+  <si>
+    <t>ath_fefoodenv800_0</t>
+  </si>
+  <si>
+    <t>ath_fealcohol800_preg</t>
+  </si>
+  <si>
+    <t>ath_fealcohol800_0</t>
+  </si>
+  <si>
+    <t>ath_febar800_preg</t>
+  </si>
+  <si>
+    <t>ath_febar800_0</t>
+  </si>
+  <si>
+    <t>ath_febeverages800_preg</t>
+  </si>
+  <si>
+    <t>ath_febeverages800_0</t>
+  </si>
+  <si>
+    <t>ath_febiergarten800_preg</t>
+  </si>
+  <si>
+    <t>ath_febiergarten800_0</t>
+  </si>
+  <si>
+    <t>ath_fecafe800_preg</t>
+  </si>
+  <si>
+    <t>ath_fecafe800_0</t>
+  </si>
+  <si>
+    <t>ath_feconvenience800_preg</t>
+  </si>
+  <si>
+    <t>ath_feconvenience800_0</t>
+  </si>
+  <si>
+    <t>ath_fefastfood800_preg</t>
+  </si>
+  <si>
+    <t>ath_fefastfood800_0</t>
+  </si>
+  <si>
+    <t>ath_fepub800_preg</t>
+  </si>
+  <si>
+    <t>ath_fepub800_0</t>
+  </si>
+  <si>
+    <t>ath_ferestaurant800_preg</t>
+  </si>
+  <si>
+    <t>ath_ferestaurant800_0</t>
+  </si>
+  <si>
+    <t>ath_fesupermarket800_preg</t>
+  </si>
+  <si>
+    <t>ath_fesupermarket800_0</t>
+  </si>
+  <si>
+    <t>number of facilities related to food divided by the area of the 300 meters buffer at pregnancy</t>
+  </si>
+  <si>
+    <t>number of facilities related to food divided by the area of the 800 meters buffer at pregnancy</t>
+  </si>
+  <si>
+    <t>number of facilities related to alcohol establishments divided by the area of the 300 meters buffer at pregnancy</t>
+  </si>
+  <si>
+    <t>number of facilities related to bar establishments divided by the area of the 300 meters buffer at pregnancy</t>
+  </si>
+  <si>
+    <t>number of facilities related to beverages establishments divided by the area of the 300 meters buffer at pregnancy</t>
+  </si>
+  <si>
+    <t>number of facilities related to biergarten establishments divided by the area of the 300 meters buffer at pregnancy</t>
+  </si>
+  <si>
+    <t>number of facilities related to cafe establishments divided by the area of the 300 meters buffer at pregnancy</t>
+  </si>
+  <si>
+    <t>number of facilities related to pub establishments divided by the area of the 300 meters buffer at pregnancy</t>
+  </si>
+  <si>
+    <t>number of facilities related to restaurant establishments divided by the area of the 300 meters buffer at pregnancy</t>
+  </si>
+  <si>
+    <t>number of facilities related to supermarket establishments divided by the area of the 300 meters buffer at pregnancy</t>
+  </si>
+  <si>
+    <t>number of facilities related to alcohol establishments divided by the area of the 800 meters buffer at pregnancy</t>
+  </si>
+  <si>
+    <t>number of facilities related to bar establishments divided by the area of the 800 meters buffer at pregnancy</t>
+  </si>
+  <si>
+    <t>number of facilities related to fast food establishments divided by the area of the 300 meters buffer at pregnancy</t>
+  </si>
+  <si>
+    <t>number of facilities related to biergarten establishments divided by the area of the 800 meters buffer at pregnancy</t>
+  </si>
+  <si>
+    <t>number of facilities related to cafe establishments divided by the area of the 800 meters buffer at pregnancy</t>
+  </si>
+  <si>
+    <t>number of facilities related to convenience establishments divided by the area of the 800 meters buffer at pregnancy</t>
+  </si>
+  <si>
+    <t>number of facilities related to fast food establishments divided by the area of the 800 meters buffer at pregnancy</t>
+  </si>
+  <si>
+    <t>number of facilities related to pub establishments divided by the area of the 800 meters buffer at pregnancy</t>
+  </si>
+  <si>
+    <t>number of facilities related to restaurant establishments divided by the area of the 800 meters buffer at pregnancy</t>
+  </si>
+  <si>
+    <t>number of facilities related to supermarket establishments divided by the area of the 800 meters buffer at pregnancy</t>
+  </si>
+  <si>
+    <t>number of facilities related to food divided by the area of the 300 meters buffer at birth</t>
+  </si>
+  <si>
+    <t>number of facilities related to alcohol establishments divided by the area of the 800 meters buffer at birth</t>
+  </si>
+  <si>
+    <t>number of facilities related to bar establishments divided by the area of the 300 meters buffer at birth</t>
+  </si>
+  <si>
+    <t>number of facilities related to beverages establishments divided by the area of the 300 meters buffer at birth</t>
+  </si>
+  <si>
+    <t>number of facilities related to biergarten establishments divided by the area of the 300 meters buffer at birth</t>
+  </si>
+  <si>
+    <t>number of facilities related to cafe establishments divided by the area of the 300 meters buffer at birth</t>
+  </si>
+  <si>
+    <t>number of facilities related to convenience establishments divided by the area of the 300 meters buffer at birth</t>
+  </si>
+  <si>
+    <t>number of facilities related to fast food establishments divided by the area of the 800 meters buffer at birth</t>
+  </si>
+  <si>
+    <t>number of facilities related to pub establishments divided by the area of the 800 meters buffer at birth</t>
+  </si>
+  <si>
+    <t>number of facilities related to restaurant establishments divided by the area of the 800 meters buffer at birth</t>
+  </si>
+  <si>
+    <t>number of facilities related to supermarket establishments divided by the area of the 800 meters buffer at birth</t>
+  </si>
+  <si>
+    <t>number of facilities related to food divided by the area of the 800 meters buffer at birth</t>
+  </si>
+  <si>
+    <t>number of facilities related to bar establishments divided by the area of the 800 meters buffer at birth</t>
+  </si>
+  <si>
+    <t>number of facilities related to beverages establishments divided by the area of the 800 meters buffer at birth</t>
+  </si>
+  <si>
+    <t>number of facilities related to biergarten establishments divided by the area of the 800 meters buffer at birth</t>
+  </si>
+  <si>
+    <t>number of facilities related to cafe establishments divided by the area of the 800 meters buffer at birth</t>
+  </si>
+  <si>
+    <t>number of facilities related to convenience establishments divided by the area of the 800 meters buffer at birth</t>
+  </si>
+  <si>
+    <t>number of facilities related to alcohol establishments divided by the area of the 300 meters buffer at birth</t>
+  </si>
+  <si>
+    <t>number of facilities related to convenience divided by the area of the 300 meters buffer at pregnancy</t>
+  </si>
+  <si>
+    <t>number of facilities related to fast food establishments divided by the area of the 300 meters buffer at birth</t>
+  </si>
+  <si>
+    <t>number of facilities related to pub establishments divided by the area of the 300 meters buffer at birth</t>
+  </si>
+  <si>
+    <t>number of facilities related to restaurant establishments divided by the area of the 300 meters buffer at birth</t>
+  </si>
+  <si>
+    <t>number of facilities related to supermarket establishments divided by the area of the 300 meters buffer at birth</t>
+  </si>
+  <si>
+    <t>number of facilities related to beverage establishments divided by the area of the 800 meters buffer at pregnancy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1949,10 +2190,10 @@
     <cellStyle name="Heading 4" xfId="33" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
     <cellStyle name="Input" xfId="34" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="Linked Cell" xfId="35" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
     <cellStyle name="Note 5" xfId="36" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
     <cellStyle name="Output" xfId="37" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="38" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
     <cellStyle name="Warning Text" xfId="39" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
   </cellStyles>
@@ -2038,7 +2279,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2334,13 +2575,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMH176"/>
+  <dimension ref="A1:AMH218"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.42578125" style="1" customWidth="1"/>
     <col min="2" max="3" width="26" style="1" customWidth="1"/>
@@ -2348,7 +2587,7 @@
     <col min="5" max="1022" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1022" s="13" customFormat="1" ht="15">
+    <row r="1" spans="1:1022" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2362,7 +2601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1022" s="8" customFormat="1">
+    <row r="2" spans="1:1022" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -2376,7 +2615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1022" s="8" customFormat="1">
+    <row r="3" spans="1:1022" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -3405,7 +3644,7 @@
       <c r="AMG3" s="9"/>
       <c r="AMH3" s="9"/>
     </row>
-    <row r="4" spans="1:1022" s="8" customFormat="1">
+    <row r="4" spans="1:1022" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -4437,7 +4676,7 @@
       <c r="AMG4" s="9"/>
       <c r="AMH4" s="9"/>
     </row>
-    <row r="5" spans="1:1022" s="8" customFormat="1" ht="15">
+    <row r="5" spans="1:1022" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
@@ -5469,7 +5708,7 @@
       <c r="AMG5" s="9"/>
       <c r="AMH5" s="9"/>
     </row>
-    <row r="6" spans="1:1022" s="8" customFormat="1" ht="15">
+    <row r="6" spans="1:1022" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
@@ -6501,7 +6740,7 @@
       <c r="AMG6" s="9"/>
       <c r="AMH6" s="9"/>
     </row>
-    <row r="7" spans="1:1022" s="8" customFormat="1">
+    <row r="7" spans="1:1022" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
@@ -7533,7 +7772,7 @@
       <c r="AMG7" s="9"/>
       <c r="AMH7" s="9"/>
     </row>
-    <row r="8" spans="1:1022" s="8" customFormat="1">
+    <row r="8" spans="1:1022" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
@@ -8565,7 +8804,7 @@
       <c r="AMG8" s="9"/>
       <c r="AMH8" s="9"/>
     </row>
-    <row r="9" spans="1:1022">
+    <row r="9" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -8577,7 +8816,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:1022">
+    <row r="10" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -8589,7 +8828,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:1022">
+    <row r="11" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -8603,7 +8842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:1022">
+    <row r="12" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -8617,7 +8856,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:1022">
+    <row r="13" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -8631,7 +8870,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:1022">
+    <row r="14" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -8645,7 +8884,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:1022">
+    <row r="15" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -8657,7 +8896,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:1022">
+    <row r="16" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -8671,7 +8910,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -8685,7 +8924,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -8699,7 +8938,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -8713,33 +8952,33 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>50</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
+      <c r="C20"/>
       <c r="D20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>52</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="C21"/>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
       <c r="D21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -8747,39 +8986,39 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" t="s">
-        <v>36</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C23"/>
       <c r="D23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24"/>
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
       <c r="D24" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -8793,7 +9032,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -8807,7 +9046,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -8821,7 +9060,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -8835,7 +9074,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -8849,7 +9088,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -8857,65 +9096,65 @@
         <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
       </c>
-      <c r="C31" t="s">
-        <v>73</v>
-      </c>
+      <c r="C31"/>
       <c r="D31" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C32"/>
       <c r="D32" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33"/>
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
       <c r="D33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
         <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -8923,27 +9162,27 @@
         <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="D35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" t="s">
-        <v>85</v>
       </c>
       <c r="D36" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -8951,39 +9190,39 @@
         <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D37" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>89</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" t="s">
-        <v>85</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C38"/>
       <c r="D38" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>91</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39"/>
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
       <c r="D39" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>93</v>
       </c>
@@ -8991,27 +9230,27 @@
         <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B41" t="s">
         <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="D41" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>98</v>
       </c>
@@ -9019,13 +9258,13 @@
         <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -9033,27 +9272,27 @@
         <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="D43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" t="s">
-        <v>103</v>
       </c>
       <c r="D44" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>105</v>
       </c>
@@ -9061,13 +9300,13 @@
         <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D45" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>107</v>
       </c>
@@ -9075,13 +9314,13 @@
         <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D46" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>109</v>
       </c>
@@ -9089,13 +9328,13 @@
         <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D47" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>111</v>
       </c>
@@ -9103,13 +9342,13 @@
         <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D48" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>113</v>
       </c>
@@ -9117,27 +9356,27 @@
         <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>115</v>
-      </c>
-      <c r="B50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" t="s">
-        <v>116</v>
       </c>
       <c r="D50" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>118</v>
       </c>
@@ -9145,13 +9384,13 @@
         <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="D51" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>120</v>
       </c>
@@ -9159,13 +9398,13 @@
         <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="D52" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>122</v>
       </c>
@@ -9173,13 +9412,13 @@
         <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>124</v>
       </c>
@@ -9187,13 +9426,13 @@
         <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="D54" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>126</v>
       </c>
@@ -9201,27 +9440,27 @@
         <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D55" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>128</v>
-      </c>
-      <c r="B56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" t="s">
-        <v>129</v>
       </c>
       <c r="D56" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>131</v>
       </c>
@@ -9229,13 +9468,13 @@
         <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D57" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>133</v>
       </c>
@@ -9243,13 +9482,13 @@
         <v>18</v>
       </c>
       <c r="C58" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D58" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>135</v>
       </c>
@@ -9257,13 +9496,13 @@
         <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D59" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>137</v>
       </c>
@@ -9271,13 +9510,13 @@
         <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D60" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>139</v>
       </c>
@@ -9285,13 +9524,13 @@
         <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D61" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>141</v>
       </c>
@@ -9299,13 +9538,13 @@
         <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D62" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>143</v>
       </c>
@@ -9313,41 +9552,41 @@
         <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D63" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>145</v>
       </c>
       <c r="B64" t="s">
         <v>18</v>
       </c>
-      <c r="C64" t="s">
-        <v>116</v>
+      <c r="C64" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="D64" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B65" t="s">
         <v>18</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>148</v>
+      <c r="C65" t="s">
+        <v>127</v>
       </c>
       <c r="D65" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>150</v>
       </c>
@@ -9355,13 +9594,13 @@
         <v>18</v>
       </c>
       <c r="C66" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D66" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>152</v>
       </c>
@@ -9369,13 +9608,13 @@
         <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D67" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>154</v>
       </c>
@@ -9383,13 +9622,13 @@
         <v>18</v>
       </c>
       <c r="C68" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D68" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>156</v>
       </c>
@@ -9397,13 +9636,13 @@
         <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D69" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>158</v>
       </c>
@@ -9411,13 +9650,13 @@
         <v>18</v>
       </c>
       <c r="C70" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D70" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>160</v>
       </c>
@@ -9425,13 +9664,13 @@
         <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D71" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>162</v>
       </c>
@@ -9439,13 +9678,13 @@
         <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D72" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>164</v>
       </c>
@@ -9453,13 +9692,13 @@
         <v>18</v>
       </c>
       <c r="C73" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D73" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>166</v>
       </c>
@@ -9467,13 +9706,13 @@
         <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D74" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>168</v>
       </c>
@@ -9481,13 +9720,13 @@
         <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="D75" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>170</v>
       </c>
@@ -9501,35 +9740,35 @@
         <v>171</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>172</v>
       </c>
       <c r="B77" t="s">
         <v>18</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D77" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>175</v>
+      </c>
+      <c r="B78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" t="s">
         <v>19</v>
-      </c>
-      <c r="D77" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
-        <v>174</v>
-      </c>
-      <c r="B78" t="s">
-        <v>18</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="D78" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>177</v>
       </c>
@@ -9537,27 +9776,27 @@
         <v>18</v>
       </c>
       <c r="C79" t="s">
+        <v>178</v>
+      </c>
+      <c r="D79" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>180</v>
+      </c>
+      <c r="B80" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" t="s">
         <v>19</v>
-      </c>
-      <c r="D79" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>179</v>
-      </c>
-      <c r="B80" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" t="s">
-        <v>180</v>
       </c>
       <c r="D80" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>182</v>
       </c>
@@ -9565,41 +9804,41 @@
         <v>18</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="D81" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B82" t="s">
         <v>18</v>
       </c>
-      <c r="C82" t="s">
-        <v>185</v>
+      <c r="C82" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="D82" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B83" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>188</v>
+      <c r="C83" t="s">
+        <v>41</v>
       </c>
       <c r="D83" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>190</v>
       </c>
@@ -9613,7 +9852,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>192</v>
       </c>
@@ -9627,7 +9866,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>194</v>
       </c>
@@ -9635,13 +9874,13 @@
         <v>18</v>
       </c>
       <c r="C86" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D86" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>196</v>
       </c>
@@ -9649,13 +9888,13 @@
         <v>18</v>
       </c>
       <c r="C87" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D87" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>198</v>
       </c>
@@ -9663,13 +9902,13 @@
         <v>18</v>
       </c>
       <c r="C88" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D88" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>200</v>
       </c>
@@ -9677,13 +9916,13 @@
         <v>18</v>
       </c>
       <c r="C89" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D89" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>202</v>
       </c>
@@ -9691,41 +9930,41 @@
         <v>18</v>
       </c>
       <c r="C90" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D90" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>204</v>
       </c>
       <c r="B91" t="s">
         <v>18</v>
       </c>
-      <c r="C91" t="s">
-        <v>96</v>
+      <c r="C91" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="D91" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>207</v>
+      </c>
+      <c r="B92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
-        <v>206</v>
-      </c>
-      <c r="B92" t="s">
-        <v>18</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="D92" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>209</v>
       </c>
@@ -9733,27 +9972,27 @@
         <v>18</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="D93" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>211</v>
       </c>
       <c r="B94" t="s">
         <v>18</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>175</v>
+      <c r="C94" t="s">
+        <v>19</v>
       </c>
       <c r="D94" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>213</v>
       </c>
@@ -9761,13 +10000,13 @@
         <v>18</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="D95" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>215</v>
       </c>
@@ -9775,13 +10014,13 @@
         <v>18</v>
       </c>
       <c r="C96" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="D96" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>217</v>
       </c>
@@ -9789,27 +10028,27 @@
         <v>18</v>
       </c>
       <c r="C97" t="s">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="D97" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>220</v>
+      </c>
+      <c r="B98" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
-        <v>219</v>
-      </c>
-      <c r="B98" t="s">
-        <v>18</v>
-      </c>
-      <c r="C98" t="s">
-        <v>220</v>
       </c>
       <c r="D98" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>222</v>
       </c>
@@ -9817,13 +10056,13 @@
         <v>18</v>
       </c>
       <c r="C99" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D99" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>224</v>
       </c>
@@ -9831,65 +10070,65 @@
         <v>18</v>
       </c>
       <c r="C100" t="s">
-        <v>220</v>
+        <v>19</v>
       </c>
       <c r="D100" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>226</v>
       </c>
       <c r="B101" t="s">
         <v>18</v>
       </c>
-      <c r="C101" t="s">
-        <v>19</v>
-      </c>
+      <c r="C101"/>
       <c r="D101" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>228</v>
       </c>
       <c r="B102" t="s">
         <v>18</v>
       </c>
-      <c r="C102"/>
+      <c r="C102" t="s">
+        <v>19</v>
+      </c>
       <c r="D102" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>230</v>
       </c>
       <c r="B103" t="s">
-        <v>18</v>
-      </c>
-      <c r="C103" t="s">
-        <v>19</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C103"/>
       <c r="D103" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>232</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
-      </c>
-      <c r="C104"/>
+        <v>18</v>
+      </c>
+      <c r="C104" t="s">
+        <v>19</v>
+      </c>
       <c r="D104" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>234</v>
       </c>
@@ -9903,21 +10142,19 @@
         <v>235</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>236</v>
       </c>
       <c r="B106" t="s">
-        <v>18</v>
-      </c>
-      <c r="C106" t="s">
-        <v>19</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C106"/>
       <c r="D106" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>238</v>
       </c>
@@ -9929,19 +10166,21 @@
         <v>239</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>240</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
-      </c>
-      <c r="C108"/>
+        <v>18</v>
+      </c>
+      <c r="C108" t="s">
+        <v>28</v>
+      </c>
       <c r="D108" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>242</v>
       </c>
@@ -9955,7 +10194,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>244</v>
       </c>
@@ -9963,13 +10202,13 @@
         <v>18</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D110" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>246</v>
       </c>
@@ -9977,39 +10216,39 @@
         <v>18</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D111" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>248</v>
       </c>
       <c r="B112" t="s">
-        <v>18</v>
-      </c>
-      <c r="C112" t="s">
-        <v>36</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C112"/>
       <c r="D112" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>250</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
-      </c>
-      <c r="C113"/>
+        <v>18</v>
+      </c>
+      <c r="C113" t="s">
+        <v>41</v>
+      </c>
       <c r="D113" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>252</v>
       </c>
@@ -10023,7 +10262,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>254</v>
       </c>
@@ -10031,13 +10270,13 @@
         <v>18</v>
       </c>
       <c r="C115" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D115" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>256</v>
       </c>
@@ -10045,15 +10284,15 @@
         <v>18</v>
       </c>
       <c r="C116" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D116" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>258</v>
+        <v>458</v>
       </c>
       <c r="B117" t="s">
         <v>18</v>
@@ -10062,12 +10301,12 @@
         <v>41</v>
       </c>
       <c r="D117" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>260</v>
+        <v>459</v>
       </c>
       <c r="B118" t="s">
         <v>18</v>
@@ -10076,730 +10315,732 @@
         <v>41</v>
       </c>
       <c r="D118" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>460</v>
+      </c>
+      <c r="B119" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119" t="s">
+        <v>41</v>
+      </c>
+      <c r="D119" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>461</v>
+      </c>
+      <c r="B120" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120" t="s">
+        <v>41</v>
+      </c>
+      <c r="D120" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>462</v>
+      </c>
+      <c r="B121" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121" t="s">
+        <v>41</v>
+      </c>
+      <c r="D121" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>463</v>
+      </c>
+      <c r="B122" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" t="s">
+        <v>41</v>
+      </c>
+      <c r="D122" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>464</v>
+      </c>
+      <c r="B123" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" t="s">
+        <v>41</v>
+      </c>
+      <c r="D123" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>465</v>
+      </c>
+      <c r="B124" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" t="s">
+        <v>41</v>
+      </c>
+      <c r="D124" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>466</v>
+      </c>
+      <c r="B125" t="s">
+        <v>18</v>
+      </c>
+      <c r="C125" t="s">
+        <v>41</v>
+      </c>
+      <c r="D125" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>467</v>
+      </c>
+      <c r="B126" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126" t="s">
+        <v>41</v>
+      </c>
+      <c r="D126" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>468</v>
+      </c>
+      <c r="B127" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127" t="s">
+        <v>41</v>
+      </c>
+      <c r="D127" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>469</v>
+      </c>
+      <c r="B128" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128" t="s">
+        <v>41</v>
+      </c>
+      <c r="D128" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>470</v>
+      </c>
+      <c r="B129" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129" t="s">
+        <v>41</v>
+      </c>
+      <c r="D129" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>471</v>
+      </c>
+      <c r="B130" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130" t="s">
+        <v>41</v>
+      </c>
+      <c r="D130" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>472</v>
+      </c>
+      <c r="B131" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" t="s">
+        <v>41</v>
+      </c>
+      <c r="D131" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>473</v>
+      </c>
+      <c r="B132" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" t="s">
+        <v>41</v>
+      </c>
+      <c r="D132" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>474</v>
+      </c>
+      <c r="B133" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133" t="s">
+        <v>41</v>
+      </c>
+      <c r="D133" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>475</v>
+      </c>
+      <c r="B134" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134" t="s">
+        <v>41</v>
+      </c>
+      <c r="D134" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>476</v>
+      </c>
+      <c r="B135" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135" t="s">
+        <v>41</v>
+      </c>
+      <c r="D135" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>477</v>
+      </c>
+      <c r="B136" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136" t="s">
+        <v>41</v>
+      </c>
+      <c r="D136" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>478</v>
+      </c>
+      <c r="B137" t="s">
+        <v>18</v>
+      </c>
+      <c r="C137" t="s">
+        <v>41</v>
+      </c>
+      <c r="D137" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>479</v>
+      </c>
+      <c r="B138" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" t="s">
+        <v>41</v>
+      </c>
+      <c r="D138" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>480</v>
+      </c>
+      <c r="B139" t="s">
+        <v>18</v>
+      </c>
+      <c r="C139" t="s">
+        <v>41</v>
+      </c>
+      <c r="D139" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>481</v>
+      </c>
+      <c r="B140" t="s">
+        <v>18</v>
+      </c>
+      <c r="C140" t="s">
+        <v>41</v>
+      </c>
+      <c r="D140" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>482</v>
+      </c>
+      <c r="B141" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141" t="s">
+        <v>41</v>
+      </c>
+      <c r="D141" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>483</v>
+      </c>
+      <c r="B142" t="s">
+        <v>18</v>
+      </c>
+      <c r="C142" t="s">
+        <v>41</v>
+      </c>
+      <c r="D142" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>484</v>
+      </c>
+      <c r="B143" t="s">
+        <v>18</v>
+      </c>
+      <c r="C143" t="s">
+        <v>41</v>
+      </c>
+      <c r="D143" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>485</v>
+      </c>
+      <c r="B144" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144" t="s">
+        <v>41</v>
+      </c>
+      <c r="D144" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>486</v>
+      </c>
+      <c r="B145" t="s">
+        <v>18</v>
+      </c>
+      <c r="C145" t="s">
+        <v>41</v>
+      </c>
+      <c r="D145" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>487</v>
+      </c>
+      <c r="B146" t="s">
+        <v>18</v>
+      </c>
+      <c r="C146" t="s">
+        <v>41</v>
+      </c>
+      <c r="D146" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>488</v>
+      </c>
+      <c r="B147" t="s">
+        <v>18</v>
+      </c>
+      <c r="C147" t="s">
+        <v>41</v>
+      </c>
+      <c r="D147" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>489</v>
+      </c>
+      <c r="B148" t="s">
+        <v>18</v>
+      </c>
+      <c r="C148" t="s">
+        <v>41</v>
+      </c>
+      <c r="D148" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>490</v>
+      </c>
+      <c r="B149" t="s">
+        <v>18</v>
+      </c>
+      <c r="C149" t="s">
+        <v>41</v>
+      </c>
+      <c r="D149" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>491</v>
+      </c>
+      <c r="B150" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150" t="s">
+        <v>41</v>
+      </c>
+      <c r="D150" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>492</v>
+      </c>
+      <c r="B151" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151" t="s">
+        <v>41</v>
+      </c>
+      <c r="D151" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>493</v>
+      </c>
+      <c r="B152" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152" t="s">
+        <v>41</v>
+      </c>
+      <c r="D152" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>494</v>
+      </c>
+      <c r="B153" t="s">
+        <v>18</v>
+      </c>
+      <c r="C153" t="s">
+        <v>41</v>
+      </c>
+      <c r="D153" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>495</v>
+      </c>
+      <c r="B154" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" t="s">
+        <v>41</v>
+      </c>
+      <c r="D154" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>496</v>
+      </c>
+      <c r="B155" t="s">
+        <v>18</v>
+      </c>
+      <c r="C155" t="s">
+        <v>41</v>
+      </c>
+      <c r="D155" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>497</v>
+      </c>
+      <c r="B156" t="s">
+        <v>18</v>
+      </c>
+      <c r="C156" t="s">
+        <v>41</v>
+      </c>
+      <c r="D156" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>498</v>
+      </c>
+      <c r="B157" t="s">
+        <v>18</v>
+      </c>
+      <c r="C157" t="s">
+        <v>41</v>
+      </c>
+      <c r="D157" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>499</v>
+      </c>
+      <c r="B158" t="s">
+        <v>18</v>
+      </c>
+      <c r="C158" t="s">
+        <v>41</v>
+      </c>
+      <c r="D158" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>500</v>
+      </c>
+      <c r="B159" t="s">
+        <v>18</v>
+      </c>
+      <c r="C159" t="s">
+        <v>41</v>
+      </c>
+      <c r="D159" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>501</v>
+      </c>
+      <c r="B160" t="s">
+        <v>18</v>
+      </c>
+      <c r="C160" t="s">
+        <v>41</v>
+      </c>
+      <c r="D160" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>258</v>
+      </c>
+      <c r="B161" t="s">
+        <v>18</v>
+      </c>
+      <c r="C161"/>
+      <c r="D161" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>260</v>
+      </c>
+      <c r="B162" t="s">
+        <v>18</v>
+      </c>
+      <c r="C162" t="s">
+        <v>33</v>
+      </c>
+      <c r="D162" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
-      <c r="A119" t="s">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>262</v>
       </c>
-      <c r="B119" t="s">
-        <v>18</v>
-      </c>
-      <c r="C119"/>
-      <c r="D119" t="s">
+      <c r="B163" t="s">
+        <v>18</v>
+      </c>
+      <c r="C163" t="s">
+        <v>36</v>
+      </c>
+      <c r="D163" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="A120" t="s">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
         <v>264</v>
       </c>
-      <c r="B120" t="s">
-        <v>18</v>
-      </c>
-      <c r="C120" t="s">
-        <v>33</v>
-      </c>
-      <c r="D120" t="s">
+      <c r="B164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164"/>
+      <c r="D164" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
-      <c r="A121" t="s">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
         <v>266</v>
       </c>
-      <c r="B121" t="s">
-        <v>18</v>
-      </c>
-      <c r="C121" t="s">
-        <v>36</v>
-      </c>
-      <c r="D121" t="s">
+      <c r="B165" t="s">
+        <v>18</v>
+      </c>
+      <c r="C165" t="s">
+        <v>19</v>
+      </c>
+      <c r="D165" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
-      <c r="A122" t="s">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
         <v>268</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B166" t="s">
+        <v>18</v>
+      </c>
+      <c r="C166" t="s">
+        <v>19</v>
+      </c>
+      <c r="D166" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>270</v>
+      </c>
+      <c r="B167" t="s">
+        <v>18</v>
+      </c>
+      <c r="C167" t="s">
+        <v>71</v>
+      </c>
+      <c r="D167" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>272</v>
+      </c>
+      <c r="B168" t="s">
+        <v>18</v>
+      </c>
+      <c r="C168"/>
+      <c r="D168" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>274</v>
+      </c>
+      <c r="B169" t="s">
         <v>5</v>
       </c>
-      <c r="C122"/>
-      <c r="D122" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" t="s">
-        <v>270</v>
-      </c>
-      <c r="B123" t="s">
-        <v>18</v>
-      </c>
-      <c r="C123" t="s">
-        <v>19</v>
-      </c>
-      <c r="D123" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" t="s">
-        <v>272</v>
-      </c>
-      <c r="B124" t="s">
-        <v>18</v>
-      </c>
-      <c r="C124" t="s">
-        <v>19</v>
-      </c>
-      <c r="D124" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" t="s">
-        <v>274</v>
-      </c>
-      <c r="B125" t="s">
-        <v>18</v>
-      </c>
-      <c r="C125" t="s">
-        <v>73</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="C169"/>
+      <c r="D169" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="A126" t="s">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
         <v>276</v>
       </c>
-      <c r="B126" t="s">
-        <v>18</v>
-      </c>
-      <c r="C126"/>
-      <c r="D126" t="s">
+      <c r="B170" t="s">
+        <v>18</v>
+      </c>
+      <c r="C170" t="s">
+        <v>78</v>
+      </c>
+      <c r="D170" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
-      <c r="A127" t="s">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
         <v>278</v>
-      </c>
-      <c r="B127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C127"/>
-      <c r="D127" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" t="s">
-        <v>280</v>
-      </c>
-      <c r="B128" t="s">
-        <v>18</v>
-      </c>
-      <c r="C128" t="s">
-        <v>80</v>
-      </c>
-      <c r="D128" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" t="s">
-        <v>282</v>
-      </c>
-      <c r="B129" t="s">
-        <v>18</v>
-      </c>
-      <c r="C129" t="s">
-        <v>19</v>
-      </c>
-      <c r="D129" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" t="s">
-        <v>284</v>
-      </c>
-      <c r="B130" t="s">
-        <v>18</v>
-      </c>
-      <c r="C130" t="s">
-        <v>85</v>
-      </c>
-      <c r="D130" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" t="s">
-        <v>286</v>
-      </c>
-      <c r="B131" t="s">
-        <v>18</v>
-      </c>
-      <c r="C131" t="s">
-        <v>85</v>
-      </c>
-      <c r="D131" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" t="s">
-        <v>288</v>
-      </c>
-      <c r="B132" t="s">
-        <v>18</v>
-      </c>
-      <c r="C132" t="s">
-        <v>85</v>
-      </c>
-      <c r="D132" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" t="s">
-        <v>290</v>
-      </c>
-      <c r="B133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C133"/>
-      <c r="D133" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" t="s">
-        <v>292</v>
-      </c>
-      <c r="B134" t="s">
-        <v>18</v>
-      </c>
-      <c r="C134" t="s">
-        <v>80</v>
-      </c>
-      <c r="D134" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" t="s">
-        <v>294</v>
-      </c>
-      <c r="B135" t="s">
-        <v>18</v>
-      </c>
-      <c r="C135" t="s">
-        <v>19</v>
-      </c>
-      <c r="D135" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" t="s">
-        <v>296</v>
-      </c>
-      <c r="B136" t="s">
-        <v>18</v>
-      </c>
-      <c r="C136" t="s">
-        <v>103</v>
-      </c>
-      <c r="D136" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" t="s">
-        <v>298</v>
-      </c>
-      <c r="B137" t="s">
-        <v>18</v>
-      </c>
-      <c r="C137" t="s">
-        <v>103</v>
-      </c>
-      <c r="D137" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" t="s">
-        <v>300</v>
-      </c>
-      <c r="B138" t="s">
-        <v>18</v>
-      </c>
-      <c r="C138" t="s">
-        <v>103</v>
-      </c>
-      <c r="D138" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" t="s">
-        <v>302</v>
-      </c>
-      <c r="B139" t="s">
-        <v>18</v>
-      </c>
-      <c r="C139" t="s">
-        <v>103</v>
-      </c>
-      <c r="D139" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" t="s">
-        <v>304</v>
-      </c>
-      <c r="B140" t="s">
-        <v>18</v>
-      </c>
-      <c r="C140" t="s">
-        <v>103</v>
-      </c>
-      <c r="D140" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" t="s">
-        <v>306</v>
-      </c>
-      <c r="B141" t="s">
-        <v>18</v>
-      </c>
-      <c r="C141" t="s">
-        <v>103</v>
-      </c>
-      <c r="D141" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" t="s">
-        <v>308</v>
-      </c>
-      <c r="B142" t="s">
-        <v>18</v>
-      </c>
-      <c r="C142" t="s">
-        <v>33</v>
-      </c>
-      <c r="D142" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" t="s">
-        <v>310</v>
-      </c>
-      <c r="B143" t="s">
-        <v>18</v>
-      </c>
-      <c r="C143" t="s">
-        <v>19</v>
-      </c>
-      <c r="D143" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" t="s">
-        <v>312</v>
-      </c>
-      <c r="B144" t="s">
-        <v>18</v>
-      </c>
-      <c r="C144" t="s">
-        <v>129</v>
-      </c>
-      <c r="D144" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" t="s">
-        <v>314</v>
-      </c>
-      <c r="B145" t="s">
-        <v>18</v>
-      </c>
-      <c r="C145" t="s">
-        <v>129</v>
-      </c>
-      <c r="D145" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" t="s">
-        <v>316</v>
-      </c>
-      <c r="B146" t="s">
-        <v>18</v>
-      </c>
-      <c r="C146" t="s">
-        <v>129</v>
-      </c>
-      <c r="D146" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" t="s">
-        <v>318</v>
-      </c>
-      <c r="B147" t="s">
-        <v>18</v>
-      </c>
-      <c r="C147" t="s">
-        <v>129</v>
-      </c>
-      <c r="D147" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" t="s">
-        <v>320</v>
-      </c>
-      <c r="B148" t="s">
-        <v>18</v>
-      </c>
-      <c r="C148" t="s">
-        <v>129</v>
-      </c>
-      <c r="D148" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" t="s">
-        <v>322</v>
-      </c>
-      <c r="B149" t="s">
-        <v>18</v>
-      </c>
-      <c r="C149" t="s">
-        <v>129</v>
-      </c>
-      <c r="D149" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" t="s">
-        <v>324</v>
-      </c>
-      <c r="B150" t="s">
-        <v>18</v>
-      </c>
-      <c r="C150" t="s">
-        <v>129</v>
-      </c>
-      <c r="D150" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" t="s">
-        <v>326</v>
-      </c>
-      <c r="B151" t="s">
-        <v>18</v>
-      </c>
-      <c r="C151" t="s">
-        <v>129</v>
-      </c>
-      <c r="D151" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" t="s">
-        <v>328</v>
-      </c>
-      <c r="B152" t="s">
-        <v>18</v>
-      </c>
-      <c r="C152" t="s">
-        <v>129</v>
-      </c>
-      <c r="D152" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" t="s">
-        <v>330</v>
-      </c>
-      <c r="B153" t="s">
-        <v>18</v>
-      </c>
-      <c r="C153" t="s">
-        <v>129</v>
-      </c>
-      <c r="D153" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" t="s">
-        <v>332</v>
-      </c>
-      <c r="B154" t="s">
-        <v>18</v>
-      </c>
-      <c r="C154" t="s">
-        <v>129</v>
-      </c>
-      <c r="D154" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" t="s">
-        <v>334</v>
-      </c>
-      <c r="B155" t="s">
-        <v>18</v>
-      </c>
-      <c r="C155" t="s">
-        <v>129</v>
-      </c>
-      <c r="D155" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" t="s">
-        <v>336</v>
-      </c>
-      <c r="B156" t="s">
-        <v>18</v>
-      </c>
-      <c r="C156" t="s">
-        <v>129</v>
-      </c>
-      <c r="D156" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" t="s">
-        <v>338</v>
-      </c>
-      <c r="B157" t="s">
-        <v>18</v>
-      </c>
-      <c r="C157" t="s">
-        <v>129</v>
-      </c>
-      <c r="D157" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" t="s">
-        <v>340</v>
-      </c>
-      <c r="B158" t="s">
-        <v>18</v>
-      </c>
-      <c r="C158" t="s">
-        <v>129</v>
-      </c>
-      <c r="D158" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" t="s">
-        <v>342</v>
-      </c>
-      <c r="B159" t="s">
-        <v>18</v>
-      </c>
-      <c r="C159" t="s">
-        <v>129</v>
-      </c>
-      <c r="D159" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" t="s">
-        <v>344</v>
-      </c>
-      <c r="B160" t="s">
-        <v>18</v>
-      </c>
-      <c r="C160" t="s">
-        <v>19</v>
-      </c>
-      <c r="D160" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" t="s">
-        <v>346</v>
-      </c>
-      <c r="B161" t="s">
-        <v>18</v>
-      </c>
-      <c r="C161" t="s">
-        <v>19</v>
-      </c>
-      <c r="D161" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" t="s">
-        <v>348</v>
-      </c>
-      <c r="B162" t="s">
-        <v>18</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="D162" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" t="s">
-        <v>351</v>
-      </c>
-      <c r="B163" t="s">
-        <v>18</v>
-      </c>
-      <c r="C163" t="s">
-        <v>19</v>
-      </c>
-      <c r="D163" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" t="s">
-        <v>353</v>
-      </c>
-      <c r="B164" t="s">
-        <v>18</v>
-      </c>
-      <c r="C164" t="s">
-        <v>19</v>
-      </c>
-      <c r="D164" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" t="s">
-        <v>355</v>
-      </c>
-      <c r="B165" t="s">
-        <v>18</v>
-      </c>
-      <c r="C165" t="s">
-        <v>41</v>
-      </c>
-      <c r="D165" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" t="s">
-        <v>357</v>
-      </c>
-      <c r="B166" t="s">
-        <v>18</v>
-      </c>
-      <c r="C166" t="s">
-        <v>41</v>
-      </c>
-      <c r="D166" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" t="s">
-        <v>359</v>
-      </c>
-      <c r="B167" t="s">
-        <v>18</v>
-      </c>
-      <c r="C167" t="s">
-        <v>41</v>
-      </c>
-      <c r="D167" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" t="s">
-        <v>361</v>
-      </c>
-      <c r="B168" t="s">
-        <v>18</v>
-      </c>
-      <c r="C168" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D168" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" t="s">
-        <v>363</v>
-      </c>
-      <c r="B169" t="s">
-        <v>18</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D169" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" t="s">
-        <v>365</v>
-      </c>
-      <c r="B170" t="s">
-        <v>18</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D170" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" t="s">
-        <v>367</v>
       </c>
       <c r="B171" t="s">
         <v>18</v>
@@ -10808,70 +11049,656 @@
         <v>19</v>
       </c>
       <c r="D171" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>280</v>
+      </c>
+      <c r="B172" t="s">
+        <v>18</v>
+      </c>
+      <c r="C172" t="s">
+        <v>83</v>
+      </c>
+      <c r="D172" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>282</v>
+      </c>
+      <c r="B173" t="s">
+        <v>18</v>
+      </c>
+      <c r="C173" t="s">
+        <v>83</v>
+      </c>
+      <c r="D173" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>284</v>
+      </c>
+      <c r="B174" t="s">
+        <v>18</v>
+      </c>
+      <c r="C174" t="s">
+        <v>83</v>
+      </c>
+      <c r="D174" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>286</v>
+      </c>
+      <c r="B175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175"/>
+      <c r="D175" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>288</v>
+      </c>
+      <c r="B176" t="s">
+        <v>18</v>
+      </c>
+      <c r="C176" t="s">
+        <v>78</v>
+      </c>
+      <c r="D176" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>290</v>
+      </c>
+      <c r="B177" t="s">
+        <v>18</v>
+      </c>
+      <c r="C177" t="s">
+        <v>19</v>
+      </c>
+      <c r="D177" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>292</v>
+      </c>
+      <c r="B178" t="s">
+        <v>18</v>
+      </c>
+      <c r="C178" t="s">
+        <v>101</v>
+      </c>
+      <c r="D178" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>294</v>
+      </c>
+      <c r="B179" t="s">
+        <v>18</v>
+      </c>
+      <c r="C179" t="s">
+        <v>101</v>
+      </c>
+      <c r="D179" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>296</v>
+      </c>
+      <c r="B180" t="s">
+        <v>18</v>
+      </c>
+      <c r="C180" t="s">
+        <v>101</v>
+      </c>
+      <c r="D180" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>298</v>
+      </c>
+      <c r="B181" t="s">
+        <v>18</v>
+      </c>
+      <c r="C181" t="s">
+        <v>101</v>
+      </c>
+      <c r="D181" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>300</v>
+      </c>
+      <c r="B182" t="s">
+        <v>18</v>
+      </c>
+      <c r="C182" t="s">
+        <v>101</v>
+      </c>
+      <c r="D182" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>302</v>
+      </c>
+      <c r="B183" t="s">
+        <v>18</v>
+      </c>
+      <c r="C183" t="s">
+        <v>101</v>
+      </c>
+      <c r="D183" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>304</v>
+      </c>
+      <c r="B184" t="s">
+        <v>18</v>
+      </c>
+      <c r="C184" t="s">
+        <v>33</v>
+      </c>
+      <c r="D184" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>306</v>
+      </c>
+      <c r="B185" t="s">
+        <v>18</v>
+      </c>
+      <c r="C185" t="s">
+        <v>19</v>
+      </c>
+      <c r="D185" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>308</v>
+      </c>
+      <c r="B186" t="s">
+        <v>18</v>
+      </c>
+      <c r="C186" t="s">
+        <v>127</v>
+      </c>
+      <c r="D186" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>310</v>
+      </c>
+      <c r="B187" t="s">
+        <v>18</v>
+      </c>
+      <c r="C187" t="s">
+        <v>127</v>
+      </c>
+      <c r="D187" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>312</v>
+      </c>
+      <c r="B188" t="s">
+        <v>18</v>
+      </c>
+      <c r="C188" t="s">
+        <v>127</v>
+      </c>
+      <c r="D188" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>314</v>
+      </c>
+      <c r="B189" t="s">
+        <v>18</v>
+      </c>
+      <c r="C189" t="s">
+        <v>127</v>
+      </c>
+      <c r="D189" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>316</v>
+      </c>
+      <c r="B190" t="s">
+        <v>18</v>
+      </c>
+      <c r="C190" t="s">
+        <v>127</v>
+      </c>
+      <c r="D190" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>318</v>
+      </c>
+      <c r="B191" t="s">
+        <v>18</v>
+      </c>
+      <c r="C191" t="s">
+        <v>127</v>
+      </c>
+      <c r="D191" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>320</v>
+      </c>
+      <c r="B192" t="s">
+        <v>18</v>
+      </c>
+      <c r="C192" t="s">
+        <v>127</v>
+      </c>
+      <c r="D192" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>322</v>
+      </c>
+      <c r="B193" t="s">
+        <v>18</v>
+      </c>
+      <c r="C193" t="s">
+        <v>127</v>
+      </c>
+      <c r="D193" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>324</v>
+      </c>
+      <c r="B194" t="s">
+        <v>18</v>
+      </c>
+      <c r="C194" t="s">
+        <v>127</v>
+      </c>
+      <c r="D194" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>326</v>
+      </c>
+      <c r="B195" t="s">
+        <v>18</v>
+      </c>
+      <c r="C195" t="s">
+        <v>127</v>
+      </c>
+      <c r="D195" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>328</v>
+      </c>
+      <c r="B196" t="s">
+        <v>18</v>
+      </c>
+      <c r="C196" t="s">
+        <v>127</v>
+      </c>
+      <c r="D196" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>330</v>
+      </c>
+      <c r="B197" t="s">
+        <v>18</v>
+      </c>
+      <c r="C197" t="s">
+        <v>127</v>
+      </c>
+      <c r="D197" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>332</v>
+      </c>
+      <c r="B198" t="s">
+        <v>18</v>
+      </c>
+      <c r="C198" t="s">
+        <v>127</v>
+      </c>
+      <c r="D198" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>334</v>
+      </c>
+      <c r="B199" t="s">
+        <v>18</v>
+      </c>
+      <c r="C199" t="s">
+        <v>127</v>
+      </c>
+      <c r="D199" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>336</v>
+      </c>
+      <c r="B200" t="s">
+        <v>18</v>
+      </c>
+      <c r="C200" t="s">
+        <v>127</v>
+      </c>
+      <c r="D200" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>338</v>
+      </c>
+      <c r="B201" t="s">
+        <v>18</v>
+      </c>
+      <c r="C201" t="s">
+        <v>127</v>
+      </c>
+      <c r="D201" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>340</v>
+      </c>
+      <c r="B202" t="s">
+        <v>18</v>
+      </c>
+      <c r="C202" t="s">
+        <v>19</v>
+      </c>
+      <c r="D202" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>342</v>
+      </c>
+      <c r="B203" t="s">
+        <v>18</v>
+      </c>
+      <c r="C203" t="s">
+        <v>19</v>
+      </c>
+      <c r="D203" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>344</v>
+      </c>
+      <c r="B204" t="s">
+        <v>18</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D204" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>347</v>
+      </c>
+      <c r="B205" t="s">
+        <v>18</v>
+      </c>
+      <c r="C205" t="s">
+        <v>19</v>
+      </c>
+      <c r="D205" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>349</v>
+      </c>
+      <c r="B206" t="s">
+        <v>18</v>
+      </c>
+      <c r="C206" t="s">
+        <v>19</v>
+      </c>
+      <c r="D206" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>351</v>
+      </c>
+      <c r="B207" t="s">
+        <v>18</v>
+      </c>
+      <c r="C207" t="s">
+        <v>41</v>
+      </c>
+      <c r="D207" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>353</v>
+      </c>
+      <c r="B208" t="s">
+        <v>18</v>
+      </c>
+      <c r="C208" t="s">
+        <v>41</v>
+      </c>
+      <c r="D208" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>355</v>
+      </c>
+      <c r="B209" t="s">
+        <v>18</v>
+      </c>
+      <c r="C209" t="s">
+        <v>41</v>
+      </c>
+      <c r="D209" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>357</v>
+      </c>
+      <c r="B210" t="s">
+        <v>18</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D210" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>359</v>
+      </c>
+      <c r="B211" t="s">
+        <v>18</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D211" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>361</v>
+      </c>
+      <c r="B212" t="s">
+        <v>18</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D212" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>363</v>
+      </c>
+      <c r="B213" t="s">
+        <v>18</v>
+      </c>
+      <c r="C213" t="s">
+        <v>19</v>
+      </c>
+      <c r="D213" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>365</v>
+      </c>
+      <c r="B214" t="s">
+        <v>18</v>
+      </c>
+      <c r="C214" t="s">
+        <v>19</v>
+      </c>
+      <c r="D214" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>367</v>
+      </c>
+      <c r="B215" t="s">
+        <v>18</v>
+      </c>
+      <c r="C215" t="s">
+        <v>19</v>
+      </c>
+      <c r="D215" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
-      <c r="A172" t="s">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
         <v>369</v>
       </c>
-      <c r="B172" t="s">
-        <v>18</v>
-      </c>
-      <c r="C172" t="s">
+      <c r="B216" t="s">
+        <v>18</v>
+      </c>
+      <c r="C216"/>
+      <c r="D216" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>371</v>
+      </c>
+      <c r="B217" t="s">
+        <v>18</v>
+      </c>
+      <c r="C217" t="s">
         <v>19</v>
       </c>
-      <c r="D172" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" t="s">
-        <v>371</v>
-      </c>
-      <c r="B173" t="s">
-        <v>18</v>
-      </c>
-      <c r="C173" t="s">
-        <v>19</v>
-      </c>
-      <c r="D173" t="s">
+      <c r="D217" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
-      <c r="A174" t="s">
-        <v>373</v>
-      </c>
-      <c r="B174" t="s">
-        <v>18</v>
-      </c>
-      <c r="C174"/>
-      <c r="D174" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" t="s">
-        <v>375</v>
-      </c>
-      <c r="B175" t="s">
-        <v>18</v>
-      </c>
-      <c r="C175" t="s">
-        <v>19</v>
-      </c>
-      <c r="D175" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="C176"/>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C218"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D175" xr:uid="{CB884253-6560-4D16-8383-8D9DA571A935}"/>
+  <autoFilter ref="A1:D217" xr:uid="{CB884253-6560-4D16-8383-8D9DA571A935}"/>
   <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" sqref="B3:B615" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" showErrorMessage="1" sqref="B3:B657" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"integer,decimal,text,binary,locale,boolean,datetime,date"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -10885,32 +11712,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41:C50"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="26" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="15">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="15">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -10921,10 +11748,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -10935,10 +11762,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -10949,10 +11776,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -10963,10 +11790,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -10977,10 +11804,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -10991,10 +11818,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -11005,10 +11832,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -11019,10 +11846,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -11033,10 +11860,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -11047,10 +11874,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -11061,10 +11888,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -11075,10 +11902,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -11089,10 +11916,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
@@ -11103,10 +11930,10 @@
         <v>0</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
@@ -11117,10 +11944,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -11131,10 +11958,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
@@ -11145,10 +11972,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -11159,10 +11986,10 @@
         <v>0</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
@@ -11173,10 +12000,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
@@ -11187,10 +12014,10 @@
         <v>0</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>11</v>
       </c>
@@ -11201,10 +12028,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
@@ -11215,10 +12042,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
@@ -11229,10 +12056,10 @@
         <v>0</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
@@ -11243,10 +12070,10 @@
         <v>0</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="8" customFormat="1" ht="15">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>11</v>
       </c>
@@ -11257,10 +12084,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>11</v>
       </c>
@@ -11271,10 +12098,10 @@
         <v>0</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
@@ -11285,10 +12112,10 @@
         <v>0</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
@@ -11299,10 +12126,10 @@
         <v>0</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>11</v>
       </c>
@@ -11313,10 +12140,10 @@
         <v>0</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="8" customFormat="1" ht="15">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>11</v>
       </c>
@@ -11327,10 +12154,10 @@
         <v>0</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="8" customFormat="1" ht="15">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>11</v>
       </c>
@@ -11341,10 +12168,10 @@
         <v>0</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="8" customFormat="1" ht="15">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>11</v>
       </c>
@@ -11355,10 +12182,10 @@
         <v>0</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="8" customFormat="1" ht="15">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>13</v>
       </c>
@@ -11369,10 +12196,10 @@
         <v>0</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="8" customFormat="1" ht="15">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>13</v>
       </c>
@@ -11383,10 +12210,10 @@
         <v>0</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="8" customFormat="1" ht="15">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>13</v>
       </c>
@@ -11397,10 +12224,10 @@
         <v>0</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="8" customFormat="1" ht="15">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>13</v>
       </c>
@@ -11411,10 +12238,10 @@
         <v>0</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" s="8" customFormat="1" ht="15">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>13</v>
       </c>
@@ -11425,10 +12252,10 @@
         <v>0</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="8" customFormat="1" ht="15">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>13</v>
       </c>
@@ -11439,10 +12266,10 @@
         <v>0</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="8" customFormat="1" ht="15">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>13</v>
       </c>
@@ -11453,10 +12280,10 @@
         <v>0</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" s="8" customFormat="1" ht="15">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>13</v>
       </c>
@@ -11467,10 +12294,10 @@
         <v>0</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" s="8" customFormat="1">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>15</v>
       </c>
@@ -11481,10 +12308,10 @@
         <v>0</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="8" customFormat="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>15</v>
       </c>
@@ -11495,10 +12322,10 @@
         <v>0</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" s="8" customFormat="1">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>15</v>
       </c>
@@ -11509,10 +12336,10 @@
         <v>0</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" s="8" customFormat="1">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>15</v>
       </c>
@@ -11523,10 +12350,10 @@
         <v>0</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" s="8" customFormat="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
         <v>15</v>
       </c>
@@ -11537,10 +12364,10 @@
         <v>0</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="8" customFormat="1">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>15</v>
       </c>
@@ -11551,10 +12378,10 @@
         <v>0</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" s="8" customFormat="1">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>15</v>
       </c>
@@ -11565,10 +12392,10 @@
         <v>0</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="8" customFormat="1">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>15</v>
       </c>
@@ -11579,12 +12406,12 @@
         <v>0</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B50">
         <v>1001</v>
@@ -11593,12 +12420,12 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B51">
         <v>1102</v>
@@ -11607,12 +12434,12 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B52">
         <v>1103</v>
@@ -11621,12 +12448,12 @@
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B53">
         <v>1104</v>
@@ -11635,12 +12462,12 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B54">
         <v>1201</v>
@@ -11649,12 +12476,12 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B55">
         <v>1202</v>
@@ -11663,12 +12490,12 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B56">
         <v>1203</v>
@@ -11677,12 +12504,12 @@
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B57">
         <v>1204</v>
@@ -11691,12 +12518,12 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B58">
         <v>1205</v>
@@ -11705,12 +12532,12 @@
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B59">
         <v>1301</v>
@@ -11719,12 +12546,12 @@
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B60">
         <v>1401</v>
@@ -11733,12 +12560,12 @@
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B61">
         <v>1402</v>
@@ -11747,12 +12574,12 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B62">
         <v>1403</v>
@@ -11761,12 +12588,12 @@
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B63">
         <v>1404</v>
@@ -11775,12 +12602,12 @@
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B64">
         <v>1501</v>
@@ -11789,12 +12616,12 @@
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B65">
         <v>1601</v>
@@ -11803,12 +12630,12 @@
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B66">
         <v>1701</v>
@@ -11817,12 +12644,12 @@
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B67">
         <v>1801</v>
@@ -11831,12 +12658,12 @@
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B68">
         <v>1802</v>
@@ -11845,12 +12672,12 @@
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B69">
         <v>1803</v>
@@ -11859,12 +12686,12 @@
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B70">
         <v>1901</v>
@@ -11873,12 +12700,12 @@
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B71">
         <v>1804</v>
@@ -11887,12 +12714,12 @@
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B72">
         <v>2101</v>
@@ -11901,12 +12728,12 @@
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B73">
         <v>2201</v>
@@ -11915,12 +12742,12 @@
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B74">
         <v>2301</v>
@@ -11929,10 +12756,10 @@
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>25</v>
       </c>
@@ -11943,10 +12770,10 @@
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>25</v>
       </c>
@@ -11957,10 +12784,10 @@
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>25</v>
       </c>
@@ -11971,10 +12798,10 @@
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>23</v>
       </c>
@@ -11985,10 +12812,10 @@
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>23</v>
       </c>
@@ -11999,10 +12826,10 @@
         <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>23</v>
       </c>
@@ -12013,10 +12840,10 @@
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>23</v>
       </c>
@@ -12027,10 +12854,10 @@
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>23</v>
       </c>
@@ -12041,12 +12868,12 @@
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -12055,12 +12882,12 @@
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -12069,12 +12896,12 @@
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B85">
         <v>3</v>
@@ -12083,12 +12910,12 @@
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B86">
         <v>4</v>
@@ -12097,12 +12924,12 @@
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -12111,12 +12938,12 @@
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B88">
         <v>6</v>
@@ -12125,12 +12952,12 @@
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -12139,12 +12966,12 @@
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -12153,12 +12980,12 @@
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>3</v>
@@ -12167,12 +12994,12 @@
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B92">
         <v>4</v>
@@ -12181,12 +13008,12 @@
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -12195,12 +13022,12 @@
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B94">
         <v>6</v>
@@ -12209,12 +13036,12 @@
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -12223,12 +13050,12 @@
         <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -12237,12 +13064,12 @@
         <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B97">
         <v>2</v>
@@ -12251,12 +13078,12 @@
         <v>0</v>
       </c>
       <c r="D97" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B98">
         <v>3</v>
@@ -12265,12 +13092,12 @@
         <v>0</v>
       </c>
       <c r="D98" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -12279,12 +13106,12 @@
         <v>0</v>
       </c>
       <c r="D99" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B100">
         <v>2</v>
@@ -12293,12 +13120,12 @@
         <v>0</v>
       </c>
       <c r="D100" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B101">
         <v>3</v>
@@ -12307,12 +13134,12 @@
         <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B102">
         <v>4</v>
@@ -12321,12 +13148,12 @@
         <v>0</v>
       </c>
       <c r="D102" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B103">
         <v>5</v>
@@ -12335,12 +13162,12 @@
         <v>0</v>
       </c>
       <c r="D103" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -12349,12 +13176,12 @@
         <v>0</v>
       </c>
       <c r="D104" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -12363,12 +13190,12 @@
         <v>0</v>
       </c>
       <c r="D105" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B106">
         <v>3</v>
@@ -12377,12 +13204,12 @@
         <v>0</v>
       </c>
       <c r="D106" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B107">
         <v>4</v>
@@ -12391,12 +13218,12 @@
         <v>0</v>
       </c>
       <c r="D107" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B108">
         <v>5</v>
@@ -12405,12 +13232,12 @@
         <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B109">
         <v>6</v>
@@ -12419,12 +13246,12 @@
         <v>0</v>
       </c>
       <c r="D109" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -12433,12 +13260,12 @@
         <v>0</v>
       </c>
       <c r="D110" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -12447,12 +13274,12 @@
         <v>0</v>
       </c>
       <c r="D111" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B112">
         <v>3</v>
@@ -12461,12 +13288,12 @@
         <v>0</v>
       </c>
       <c r="D112" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B113">
         <v>4</v>
@@ -12475,12 +13302,12 @@
         <v>0</v>
       </c>
       <c r="D113" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B114">
         <v>5</v>
@@ -12489,12 +13316,12 @@
         <v>0</v>
       </c>
       <c r="D114" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B115">
         <v>6</v>
@@ -12503,12 +13330,12 @@
         <v>0</v>
       </c>
       <c r="D115" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -12517,12 +13344,12 @@
         <v>0</v>
       </c>
       <c r="D116" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -12531,10 +13358,10 @@
         <v>0</v>
       </c>
       <c r="D117" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>38</v>
       </c>
@@ -12545,10 +13372,10 @@
         <v>0</v>
       </c>
       <c r="D118" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>38</v>
       </c>
@@ -12559,12 +13386,12 @@
         <v>0</v>
       </c>
       <c r="D119" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B120" s="1">
         <v>0</v>
@@ -12573,12 +13400,12 @@
         <v>0</v>
       </c>
       <c r="D120" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B121" s="1">
         <v>1</v>
@@ -12587,12 +13414,12 @@
         <v>0</v>
       </c>
       <c r="D121" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B122" s="1">
         <v>0</v>
@@ -12601,181 +13428,181 @@
         <v>0</v>
       </c>
       <c r="D122" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B123" s="1"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B124" s="1"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B125" s="1"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B128" s="1"/>
     </row>
-    <row r="129" spans="2:2">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B129" s="1"/>
     </row>
-    <row r="130" spans="2:2">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B130" s="1"/>
     </row>
-    <row r="131" spans="2:2">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B131" s="1"/>
     </row>
-    <row r="132" spans="2:2">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B132" s="1"/>
     </row>
-    <row r="133" spans="2:2">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B133" s="1"/>
     </row>
-    <row r="134" spans="2:2">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B134" s="1"/>
     </row>
-    <row r="135" spans="2:2">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B135" s="1"/>
     </row>
-    <row r="136" spans="2:2">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B136" s="1"/>
     </row>
-    <row r="137" spans="2:2">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B137" s="1"/>
     </row>
-    <row r="138" spans="2:2">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B138" s="1"/>
     </row>
-    <row r="139" spans="2:2">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B139" s="1"/>
     </row>
-    <row r="140" spans="2:2">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140" s="1"/>
     </row>
-    <row r="141" spans="2:2">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B141" s="1"/>
     </row>
-    <row r="142" spans="2:2">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B142" s="1"/>
     </row>
-    <row r="143" spans="2:2">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B143" s="1"/>
     </row>
-    <row r="144" spans="2:2">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B144" s="1"/>
     </row>
-    <row r="145" spans="2:2">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B145" s="1"/>
     </row>
-    <row r="146" spans="2:2">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B146" s="1"/>
     </row>
-    <row r="147" spans="2:2">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B147" s="1"/>
     </row>
-    <row r="148" spans="2:2">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B148" s="1"/>
     </row>
-    <row r="149" spans="2:2">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B149" s="1"/>
     </row>
-    <row r="150" spans="2:2">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B150" s="1"/>
     </row>
-    <row r="151" spans="2:2">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B151" s="1"/>
     </row>
-    <row r="152" spans="2:2">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B152" s="1"/>
     </row>
-    <row r="153" spans="2:2">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B153" s="1"/>
     </row>
-    <row r="154" spans="2:2">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B154" s="1"/>
     </row>
-    <row r="155" spans="2:2">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B155" s="1"/>
     </row>
-    <row r="156" spans="2:2">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B156" s="1"/>
     </row>
-    <row r="157" spans="2:2">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B157" s="1"/>
     </row>
-    <row r="158" spans="2:2">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B158" s="1"/>
     </row>
-    <row r="159" spans="2:2">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B159" s="1"/>
     </row>
-    <row r="160" spans="2:2">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B160" s="1"/>
     </row>
-    <row r="161" spans="2:2">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B161" s="1"/>
     </row>
-    <row r="162" spans="2:2">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B162" s="1"/>
     </row>
-    <row r="163" spans="2:2">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B163" s="1"/>
     </row>
-    <row r="164" spans="2:2">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B164" s="1"/>
     </row>
-    <row r="165" spans="2:2">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B165" s="1"/>
     </row>
-    <row r="166" spans="2:2">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B166" s="1"/>
     </row>
-    <row r="167" spans="2:2">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B167" s="1"/>
     </row>
-    <row r="168" spans="2:2">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B168" s="1"/>
     </row>
-    <row r="169" spans="2:2">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B169" s="1"/>
     </row>
-    <row r="170" spans="2:2">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B170" s="1"/>
     </row>
-    <row r="171" spans="2:2">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B171" s="1"/>
     </row>
-    <row r="172" spans="2:2">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B172" s="1"/>
     </row>
-    <row r="173" spans="2:2">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B173" s="1"/>
     </row>
-    <row r="174" spans="2:2">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B174" s="1"/>
     </row>
-    <row r="175" spans="2:2">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B175" s="1"/>
     </row>
-    <row r="176" spans="2:2">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B176" s="1"/>
     </row>
-    <row r="177" spans="2:2">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B177" s="1"/>
     </row>
-    <row r="178" spans="2:2">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B178" s="1"/>
     </row>
-    <row r="179" spans="2:2">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B179" s="1"/>
     </row>
-    <row r="180" spans="2:2">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B180" s="1"/>
     </row>
   </sheetData>
